--- a/reports/TS_Cyto_significant_times.xlsx
+++ b/reports/TS_Cyto_significant_times.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +479,11 @@
         <v>4.350897190991443</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-6.019:-2.002</t>
+          <t>9.433:12.432</t>
         </is>
       </c>
     </row>
@@ -501,11 +501,11 @@
         <v>3.290262062401871</v>
       </c>
       <c r="E3" t="n">
-        <v>0.035</v>
+        <v>0.021</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-5.071:-1.929</t>
+          <t>9.279:11.663</t>
         </is>
       </c>
     </row>
@@ -523,11 +523,11 @@
         <v>5.5098082529564</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-7.071:-3.949</t>
+          <t>9.878:13.233</t>
         </is>
       </c>
     </row>
@@ -545,11 +545,11 @@
         <v>9.372112626903576</v>
       </c>
       <c r="E5" t="n">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-10.669:-7.719</t>
+          <t>10.59:16.315</t>
         </is>
       </c>
     </row>
@@ -567,11 +567,11 @@
         <v>12.86710229692338</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-14.897:-10.741</t>
+          <t>11.254:19.177</t>
         </is>
       </c>
     </row>
@@ -589,11 +589,11 @@
         <v>16.64554992862182</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-18.839:-14.349</t>
+          <t>12.158:22.21</t>
         </is>
       </c>
     </row>
@@ -611,11 +611,11 @@
         <v>19.43202663492405</v>
       </c>
       <c r="E8" t="n">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-21.777:-17.087</t>
+          <t>12.726:24.361</t>
         </is>
       </c>
     </row>
@@ -633,11 +633,11 @@
         <v>23.4439782843185</v>
       </c>
       <c r="E9" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-26.051:-20.837</t>
+          <t>13.213:27.725</t>
         </is>
       </c>
     </row>
@@ -655,11 +655,11 @@
         <v>25.58473030942158</v>
       </c>
       <c r="E10" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-27.58:-23.078</t>
+          <t>13.867:29.204</t>
         </is>
       </c>
     </row>
@@ -677,11 +677,11 @@
         <v>28.99795535359392</v>
       </c>
       <c r="E11" t="n">
-        <v>0.011</v>
+        <v>0.002</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-32.038:-25.931</t>
+          <t>14.395:32.16</t>
         </is>
       </c>
     </row>
@@ -699,11 +699,11 @@
         <v>32.56025179120617</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-35.439:-29.421</t>
+          <t>15.088:34.998</t>
         </is>
       </c>
     </row>
@@ -721,11 +721,11 @@
         <v>35.95641682970965</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-38.327:-33.052</t>
+          <t>15.885:37.524</t>
         </is>
       </c>
     </row>
@@ -743,11 +743,11 @@
         <v>40.71899790679873</v>
       </c>
       <c r="E14" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-45.01:-36.266</t>
+          <t>16.594:41.621</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-46.399:-40.172</t>
+          <t>17.288:43.557</t>
         </is>
       </c>
     </row>
@@ -787,11 +787,11 @@
         <v>47.56803433668792</v>
       </c>
       <c r="E16" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-51.765:-42.961</t>
+          <t>17.903:46.941</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-59.634:-45.45</t>
+          <t>18.997:51.937</t>
         </is>
       </c>
     </row>
@@ -831,11 +831,11 @@
         <v>64.60298876867638</v>
       </c>
       <c r="E18" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-74.609:-53.882</t>
+          <t>20.663:60.809</t>
         </is>
       </c>
     </row>
@@ -853,11 +853,11 @@
         <v>76.39595081704786</v>
       </c>
       <c r="E19" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-88.058:-64.053</t>
+          <t>22.436:71.204</t>
         </is>
       </c>
     </row>
@@ -875,11 +875,11 @@
         <v>74.90324209241982</v>
       </c>
       <c r="E20" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-82.139:-67.667</t>
+          <t>23.036:68.865</t>
         </is>
       </c>
     </row>
@@ -897,11 +897,11 @@
         <v>85.22892954589926</v>
       </c>
       <c r="E21" t="n">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-94.502:-71.279</t>
+          <t>24.563:78.016</t>
         </is>
       </c>
     </row>
@@ -919,11 +919,77 @@
         <v>86.17467372295488</v>
       </c>
       <c r="E22" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-93.438:-78.912</t>
+          <t>25.489:78.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>110.132055313849</v>
+      </c>
+      <c r="D23" t="n">
+        <v>99.79114982490218</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>27.275:89.427</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>118.1985390839913</v>
+      </c>
+      <c r="D24" t="n">
+        <v>107.8576335950445</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>30.049:95.154</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>115.6799197725589</v>
+      </c>
+      <c r="D25" t="n">
+        <v>105.3390142836121</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>28.002:94.606</t>
         </is>
       </c>
     </row>
@@ -938,7 +1004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -987,11 +1053,11 @@
         <v>24.84056815289922</v>
       </c>
       <c r="E2" t="n">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-27.262:-22.85</t>
+          <t>48.914:65.102</t>
         </is>
       </c>
     </row>
@@ -1009,11 +1075,11 @@
         <v>53.1943797000192</v>
       </c>
       <c r="E3" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-56.82:-49.12</t>
+          <t>54.571:87.594</t>
         </is>
       </c>
     </row>
@@ -1031,11 +1097,11 @@
         <v>68.07355000932533</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-70.902:-63.755</t>
+          <t>57.483:99.636</t>
         </is>
       </c>
     </row>
@@ -1053,11 +1119,11 @@
         <v>82.19854747827536</v>
       </c>
       <c r="E5" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-89.768:-76.871</t>
+          <t>59.798:110.82</t>
         </is>
       </c>
     </row>
@@ -1075,11 +1141,11 @@
         <v>91.38007612143171</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-97.194:-84.976</t>
+          <t>62.198:118.331</t>
         </is>
       </c>
     </row>
@@ -1097,11 +1163,11 @@
         <v>104.1448615279835</v>
       </c>
       <c r="E7" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-112.821:-93.047</t>
+          <t>64.303:128.911</t>
         </is>
       </c>
     </row>
@@ -1119,11 +1185,11 @@
         <v>114.5048926416165</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-119.988:-108.787</t>
+          <t>66.608:136.707</t>
         </is>
       </c>
     </row>
@@ -1141,11 +1207,11 @@
         <v>120.765054780364</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-129.188:-109.818</t>
+          <t>67.728:142.454</t>
         </is>
       </c>
     </row>
@@ -1163,11 +1229,11 @@
         <v>127.5364987856764</v>
       </c>
       <c r="E10" t="n">
-        <v>0.015</v>
+        <v>0.002</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-133.049:-120.522</t>
+          <t>69.259:147.538</t>
         </is>
       </c>
     </row>
@@ -1185,11 +1251,11 @@
         <v>135.4713619938295</v>
       </c>
       <c r="E11" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-147.607:-123.265</t>
+          <t>69.48:153.697</t>
         </is>
       </c>
     </row>
@@ -1207,11 +1273,11 @@
         <v>140.2838193491975</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-149.34:-131.377</t>
+          <t>71.525:157.76</t>
         </is>
       </c>
     </row>
@@ -1229,11 +1295,11 @@
         <v>151.6160768593553</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-160.38:-140.348</t>
+          <t>72.738:167.095</t>
         </is>
       </c>
     </row>
@@ -1251,11 +1317,11 @@
         <v>151.8648781580472</v>
       </c>
       <c r="E14" t="n">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-164.421:-137.146</t>
+          <t>73.915:167.488</t>
         </is>
       </c>
     </row>
@@ -1273,11 +1339,11 @@
         <v>171.8968734310531</v>
       </c>
       <c r="E15" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-192.762:-151.031</t>
+          <t>74.685:184.517</t>
         </is>
       </c>
     </row>
@@ -1295,11 +1361,11 @@
         <v>164.2786947855662</v>
       </c>
       <c r="E16" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-175.909:-152.389</t>
+          <t>76.263:176.551</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1387,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-184.223:-153.973</t>
+          <t>76.76:182.076</t>
         </is>
       </c>
     </row>
@@ -1339,11 +1405,11 @@
         <v>186.376451801009</v>
       </c>
       <c r="E18" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-201.067:-167.653</t>
+          <t>80.131:196.071</t>
         </is>
       </c>
     </row>
@@ -1361,11 +1427,11 @@
         <v>189.9648035363492</v>
       </c>
       <c r="E19" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-206.866:-170.832</t>
+          <t>81.217:198.971</t>
         </is>
       </c>
     </row>
@@ -1383,11 +1449,11 @@
         <v>193.1411462152743</v>
       </c>
       <c r="E20" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-211.448:-170.174</t>
+          <t>79.337:201.794</t>
         </is>
       </c>
     </row>
@@ -1405,11 +1471,11 @@
         <v>202.5016782604728</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-213.52:-191.483</t>
+          <t>82.627:207.911</t>
         </is>
       </c>
     </row>
@@ -1427,11 +1493,77 @@
         <v>207.0373765456241</v>
       </c>
       <c r="E22" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-217.456:-194.115</t>
+          <t>83.817:211.241</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>262.9639468598415</v>
+      </c>
+      <c r="D23" t="n">
+        <v>216.8168490634831</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>84.733:221.502</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>276.1871985062493</v>
+      </c>
+      <c r="D24" t="n">
+        <v>230.0401007098908</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>87.499:230.857</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>287.2164991928347</v>
+      </c>
+      <c r="D25" t="n">
+        <v>241.0694013964762</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>90.676:240.145</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1495,11 +1627,11 @@
         <v>697.1587185805995</v>
       </c>
       <c r="E2" t="n">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-781.98:-621.214</t>
+          <t>138.7:574.601</t>
         </is>
       </c>
     </row>
@@ -1517,11 +1649,11 @@
         <v>698.8787223221659</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-795.077:-602.68</t>
+          <t>136.479:578.142</t>
         </is>
       </c>
     </row>
@@ -1539,11 +1671,11 @@
         <v>702.2140336497304</v>
       </c>
       <c r="E4" t="n">
-        <v>0.014</v>
+        <v>0.002</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-755.593:-643.886</t>
+          <t>143.483:576.43</t>
         </is>
       </c>
     </row>
@@ -1561,11 +1693,11 @@
         <v>714.0741589565104</v>
       </c>
       <c r="E5" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-799.539:-628.609</t>
+          <t>142.591:586.053</t>
         </is>
       </c>
     </row>
@@ -1583,11 +1715,11 @@
         <v>722.2425083599613</v>
       </c>
       <c r="E6" t="n">
-        <v>0.008</v>
+        <v>0.003</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-801.858:-642.189</t>
+          <t>139.787:593.438</t>
         </is>
       </c>
     </row>
@@ -1605,11 +1737,11 @@
         <v>722.7698477317614</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-795.208:-664.863</t>
+          <t>142.346:592.214</t>
         </is>
       </c>
     </row>
@@ -1627,11 +1759,11 @@
         <v>762.1763274738955</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-829.636:-696.467</t>
+          <t>151.257:623.4</t>
         </is>
       </c>
     </row>
@@ -1649,11 +1781,11 @@
         <v>755.7835004810711</v>
       </c>
       <c r="E9" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-834.87:-679.897</t>
+          <t>149.627:619.028</t>
         </is>
       </c>
     </row>
@@ -1671,11 +1803,11 @@
         <v>746.5128028033208</v>
       </c>
       <c r="E10" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-821.136:-671.89</t>
+          <t>143.445:610.227</t>
         </is>
       </c>
     </row>
@@ -1693,11 +1825,11 @@
         <v>766.8123462346587</v>
       </c>
       <c r="E11" t="n">
-        <v>0.012</v>
+        <v>0.001</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-856.548:-677.077</t>
+          <t>147.033:632.848</t>
         </is>
       </c>
     </row>
@@ -1715,11 +1847,11 @@
         <v>749.5334224636407</v>
       </c>
       <c r="E12" t="n">
-        <v>0.013</v>
+        <v>0.001</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-805.026:-691.461</t>
+          <t>152.921:612.4</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1869,11 @@
         <v>732.1489000612085</v>
       </c>
       <c r="E13" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-814.718:-650.727</t>
+          <t>142.478:600.269</t>
         </is>
       </c>
     </row>
@@ -1759,11 +1891,11 @@
         <v>720.6302423244452</v>
       </c>
       <c r="E14" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-803.553:-615.941</t>
+          <t>141.47:598.962</t>
         </is>
       </c>
     </row>
@@ -1781,11 +1913,11 @@
         <v>748.540394739746</v>
       </c>
       <c r="E15" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-810.141:-686.94</t>
+          <t>150.428:611.869</t>
         </is>
       </c>
     </row>
@@ -1803,11 +1935,11 @@
         <v>759.1198867944644</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-826.043:-700.064</t>
+          <t>150.362:621.614</t>
         </is>
       </c>
     </row>
@@ -1825,11 +1957,11 @@
         <v>762.6267406312556</v>
       </c>
       <c r="E17" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-826.689:-699.898</t>
+          <t>150.681:623.607</t>
         </is>
       </c>
     </row>
@@ -1847,11 +1979,11 @@
         <v>761.6954584535436</v>
       </c>
       <c r="E18" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-836.538:-686.853</t>
+          <t>150.117:626.911</t>
         </is>
       </c>
     </row>
@@ -1869,11 +2001,11 @@
         <v>761.4055225207399</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-835.675:-687.136</t>
+          <t>150.129:625.351</t>
         </is>
       </c>
     </row>
@@ -1891,11 +2023,11 @@
         <v>759.7038854831209</v>
       </c>
       <c r="E20" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-827.459:-691.949</t>
+          <t>151.099:622.329</t>
         </is>
       </c>
     </row>
@@ -1913,11 +2045,11 @@
         <v>766.780208248317</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-835.733:-697.827</t>
+          <t>157.108:626.299</t>
         </is>
       </c>
     </row>
@@ -1935,11 +2067,77 @@
         <v>779.1835759197348</v>
       </c>
       <c r="E22" t="n">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-855.569:-696.194</t>
+          <t>153.889:638.884</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>760.633535943384</v>
+      </c>
+      <c r="D23" t="n">
+        <v>749.2377240667673</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>150.168:611.923</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>719.725902775956</v>
+      </c>
+      <c r="D24" t="n">
+        <v>708.3300908993393</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>140.815:582.813</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>721.518861400889</v>
+      </c>
+      <c r="D25" t="n">
+        <v>710.1230495242723</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>140.696:580.773</t>
         </is>
       </c>
     </row>
@@ -1954,7 +2152,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2003,11 +2201,11 @@
         <v>13.80004457910475</v>
       </c>
       <c r="E2" t="n">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-18.883:-5.918</t>
+          <t>28.96:39.283</t>
         </is>
       </c>
     </row>
@@ -2025,11 +2223,11 @@
         <v>13.27719421196146</v>
       </c>
       <c r="E3" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-20.292:-7.251</t>
+          <t>27.492:39.507</t>
         </is>
       </c>
     </row>
@@ -2047,11 +2245,11 @@
         <v>20.48953709036882</v>
       </c>
       <c r="E4" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-27.268:-13.083</t>
+          <t>29.507:44.642</t>
         </is>
       </c>
     </row>
@@ -2069,11 +2267,11 @@
         <v>37.46157661698937</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-44.531:-29.879</t>
+          <t>33.221:58.099</t>
         </is>
       </c>
     </row>
@@ -2091,11 +2289,11 @@
         <v>53.36316479268769</v>
       </c>
       <c r="E6" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-61.776:-44.95</t>
+          <t>36.837:71.065</t>
         </is>
       </c>
     </row>
@@ -2113,11 +2311,11 @@
         <v>74.96709369831746</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-88.701:-60.599</t>
+          <t>40.078:88.862</t>
         </is>
       </c>
     </row>
@@ -2135,11 +2333,11 @@
         <v>88.95394699845508</v>
       </c>
       <c r="E8" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-101.582:-75.963</t>
+          <t>43.255:99.565</t>
         </is>
       </c>
     </row>
@@ -2157,11 +2355,11 @@
         <v>111.9728487602792</v>
       </c>
       <c r="E9" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-128.321:-92.074</t>
+          <t>46.926:118.204</t>
         </is>
       </c>
     </row>
@@ -2179,11 +2377,11 @@
         <v>127.3850515112665</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-146.903:-107.867</t>
+          <t>48.89:130.696</t>
         </is>
       </c>
     </row>
@@ -2201,11 +2399,11 @@
         <v>148.3841624423392</v>
       </c>
       <c r="E11" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-166.614:-125.916</t>
+          <t>53.98:147.49</t>
         </is>
       </c>
     </row>
@@ -2223,11 +2421,11 @@
         <v>170.5307098860789</v>
       </c>
       <c r="E12" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-188.8:-152.222</t>
+          <t>57.724:165.419</t>
         </is>
       </c>
     </row>
@@ -2245,11 +2443,11 @@
         <v>199.8358438375085</v>
       </c>
       <c r="E13" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-221.457:-175.954</t>
+          <t>63.773:189.074</t>
         </is>
       </c>
     </row>
@@ -2267,11 +2465,11 @@
         <v>219.8049946922041</v>
       </c>
       <c r="E14" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-238.984:-200.626</t>
+          <t>67.1:204.599</t>
         </is>
       </c>
     </row>
@@ -2289,11 +2487,11 @@
         <v>255.5662605577888</v>
       </c>
       <c r="E15" t="n">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-284.915:-226.43</t>
+          <t>73.708:235.286</t>
         </is>
       </c>
     </row>
@@ -2311,11 +2509,11 @@
         <v>290.9842462575266</v>
       </c>
       <c r="E16" t="n">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-316.301:-261.605</t>
+          <t>81.956:262.854</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2535,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-373.661:-274.541</t>
+          <t>83.803:292.489</t>
         </is>
       </c>
     </row>
@@ -2355,11 +2553,11 @@
         <v>404.7227736449895</v>
       </c>
       <c r="E18" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-462.011:-345.451</t>
+          <t>100.23:352.872</t>
         </is>
       </c>
     </row>
@@ -2377,11 +2575,11 @@
         <v>506.4290148778208</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-594.745:-418.113</t>
+          <t>114.764:443.564</t>
         </is>
       </c>
     </row>
@@ -2399,11 +2597,11 @@
         <v>508.144880568066</v>
       </c>
       <c r="E20" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-541.564:-477.423</t>
+          <t>122.759:435.524</t>
         </is>
       </c>
     </row>
@@ -2421,11 +2619,11 @@
         <v>598.4608098896553</v>
       </c>
       <c r="E21" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-661.514:-514.687</t>
+          <t>134.654:513.52</t>
         </is>
       </c>
     </row>
@@ -2443,11 +2641,77 @@
         <v>629.4790042186671</v>
       </c>
       <c r="E22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>143.752:533.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>786.7900597372286</v>
+      </c>
+      <c r="D23" t="n">
+        <v>758.0243633460547</v>
+      </c>
+      <c r="E23" t="n">
         <v>0</v>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>-677.353:-589.683</t>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>168.245:639.367</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>858.7677297506436</v>
+      </c>
+      <c r="D24" t="n">
+        <v>830.0020333594697</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>188.382:695.635</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>856.8728288436271</v>
+      </c>
+      <c r="D25" t="n">
+        <v>828.1071324524531</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>177.658:700.424</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2511,11 +2775,11 @@
         <v>95.78269454091753</v>
       </c>
       <c r="E2" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-107.496:-82.645</t>
+          <t>87.943:150.589</t>
         </is>
       </c>
     </row>
@@ -2533,11 +2797,11 @@
         <v>263.3469475794815</v>
       </c>
       <c r="E3" t="n">
-        <v>0.012</v>
+        <v>0.002</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-282.504:-240.799</t>
+          <t>119.469:284.754</t>
         </is>
       </c>
     </row>
@@ -2555,11 +2819,11 @@
         <v>379.4626386023662</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-406.781:-350.477</t>
+          <t>142.84:378.288</t>
         </is>
       </c>
     </row>
@@ -2577,11 +2841,11 @@
         <v>473.2202249662439</v>
       </c>
       <c r="E5" t="n">
-        <v>0.016</v>
+        <v>0.004</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-515.009:-426.271</t>
+          <t>163.088:456.294</t>
         </is>
       </c>
     </row>
@@ -2599,11 +2863,11 @@
         <v>556.1404207612563</v>
       </c>
       <c r="E6" t="n">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-586.191:-522.951</t>
+          <t>176.861:519.941</t>
         </is>
       </c>
     </row>
@@ -2621,11 +2885,11 @@
         <v>645.484748517255</v>
       </c>
       <c r="E7" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-706.277:-576.833</t>
+          <t>192.079:591.643</t>
         </is>
       </c>
     </row>
@@ -2643,11 +2907,11 @@
         <v>709.6071569612548</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-759.403:-649.315</t>
+          <t>199.349:645.448</t>
         </is>
       </c>
     </row>
@@ -2665,11 +2929,11 @@
         <v>757.1528860196165</v>
       </c>
       <c r="E9" t="n">
-        <v>0.011</v>
+        <v>0.002</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-819.269:-689.554</t>
+          <t>211.679:686.884</t>
         </is>
       </c>
     </row>
@@ -2687,11 +2951,11 @@
         <v>810.2656007072408</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-867.19:-729.099</t>
+          <t>219.916:727.256</t>
         </is>
       </c>
     </row>
@@ -2709,11 +2973,11 @@
         <v>866.6762867653098</v>
       </c>
       <c r="E11" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-941.416:-772.589</t>
+          <t>234.016:778.069</t>
         </is>
       </c>
     </row>
@@ -2731,11 +2995,11 @@
         <v>879.7561573437732</v>
       </c>
       <c r="E12" t="n">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-926.641:-827.221</t>
+          <t>241.431:780.976</t>
         </is>
       </c>
     </row>
@@ -2753,11 +3017,11 @@
         <v>957.2369550806206</v>
       </c>
       <c r="E13" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-1043.752:-851.881</t>
+          <t>253.512:849.2</t>
         </is>
       </c>
     </row>
@@ -2775,11 +3039,11 @@
         <v>1003.994560745042</v>
       </c>
       <c r="E14" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-1060.792:-934.945</t>
+          <t>264.661:882.384</t>
         </is>
       </c>
     </row>
@@ -2797,11 +3061,11 @@
         <v>994.5235370506146</v>
       </c>
       <c r="E15" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-1104.429:-871.24</t>
+          <t>259.02:882.084</t>
         </is>
       </c>
     </row>
@@ -2819,11 +3083,11 @@
         <v>950.1522144746593</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-1004.408:-902.964</t>
+          <t>253.458:834.479</t>
         </is>
       </c>
     </row>
@@ -2841,11 +3105,11 @@
         <v>994.0336546365327</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-1085.113:-878.028</t>
+          <t>260.561:880.38</t>
         </is>
       </c>
     </row>
@@ -2863,11 +3127,11 @@
         <v>1053.308291727119</v>
       </c>
       <c r="E18" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-1139.6:-936.483</t>
+          <t>270.945:926.503</t>
         </is>
       </c>
     </row>
@@ -2885,11 +3149,11 @@
         <v>1053.901957151895</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-1135.163:-950.516</t>
+          <t>268.356:926.642</t>
         </is>
       </c>
     </row>
@@ -2911,7 +3175,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-1191.009:-958.926</t>
+          <t>275.224:951.676</t>
         </is>
       </c>
     </row>
@@ -2929,11 +3193,11 @@
         <v>1121.10792992708</v>
       </c>
       <c r="E21" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-1202.912:-1042.779</t>
+          <t>281.388:974.768</t>
         </is>
       </c>
     </row>
@@ -2951,11 +3215,77 @@
         <v>1112.859882162312</v>
       </c>
       <c r="E22" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-1178.186:-1031.285</t>
+          <t>284.184:971.811</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1235.091042027896</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1161.683272192034</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>278.407:1016.203</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1264.23739492153</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1190.829625085668</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>299.072:1039.336</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1302.878143757043</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1229.470373921181</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>300.075:1068.844</t>
         </is>
       </c>
     </row>
@@ -2970,7 +3300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3019,11 +3349,11 @@
         <v>2258.759322842784</v>
       </c>
       <c r="E2" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-2473.289:-2038.361</t>
+          <t>454.226:1854.469</t>
         </is>
       </c>
     </row>
@@ -3041,11 +3371,11 @@
         <v>2477.981558043411</v>
       </c>
       <c r="E3" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-2728.685:-2307.112</t>
+          <t>488.115:2041.047</t>
         </is>
       </c>
     </row>
@@ -3063,11 +3393,11 @@
         <v>2569.166818797825</v>
       </c>
       <c r="E4" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-2731.865:-2411.753</t>
+          <t>516.084:2093.091</t>
         </is>
       </c>
     </row>
@@ -3085,11 +3415,11 @@
         <v>2552.604951474303</v>
       </c>
       <c r="E5" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-2802.476:-2381.234</t>
+          <t>499.013:2094.074</t>
         </is>
       </c>
     </row>
@@ -3107,11 +3437,11 @@
         <v>2563.750622707494</v>
       </c>
       <c r="E6" t="n">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-2763.586:-2456.466</t>
+          <t>509.127:2105.485</t>
         </is>
       </c>
     </row>
@@ -3129,11 +3459,11 @@
         <v>2606.882658415594</v>
       </c>
       <c r="E7" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-2858.679:-2366.707</t>
+          <t>510.668:2130.233</t>
         </is>
       </c>
     </row>
@@ -3151,11 +3481,11 @@
         <v>2169.786053369243</v>
       </c>
       <c r="E8" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-2323.599:-2050.749</t>
+          <t>435.129:1773.434</t>
         </is>
       </c>
     </row>
@@ -3173,11 +3503,11 @@
         <v>2172.614227341624</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-2386.956:-1988.047</t>
+          <t>437.481:1774.861</t>
         </is>
       </c>
     </row>
@@ -3195,11 +3525,11 @@
         <v>2183.857087915059</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-2341.552:-2068.538</t>
+          <t>446.101:1790.387</t>
         </is>
       </c>
     </row>
@@ -3217,11 +3547,11 @@
         <v>2171.702167849075</v>
       </c>
       <c r="E11" t="n">
-        <v>0.013</v>
+        <v>0.001</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-2385.551:-1993.14</t>
+          <t>437.68:1779.685</t>
         </is>
       </c>
     </row>
@@ -3243,7 +3573,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-2255.242:-2077.041</t>
+          <t>440.769:1758.087</t>
         </is>
       </c>
     </row>
@@ -3261,11 +3591,11 @@
         <v>2085.229967295701</v>
       </c>
       <c r="E13" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-2305.215:-1921.575</t>
+          <t>414.461:1718.615</t>
         </is>
       </c>
     </row>
@@ -3283,11 +3613,11 @@
         <v>2002.178992314644</v>
       </c>
       <c r="E14" t="n">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-2206.496:-1818.226</t>
+          <t>412.817:1643.23</t>
         </is>
       </c>
     </row>
@@ -3305,11 +3635,11 @@
         <v>2071.253010217675</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-2212.131:-1916.251</t>
+          <t>424.258:1693.831</t>
         </is>
       </c>
     </row>
@@ -3327,11 +3657,11 @@
         <v>2119.083827352233</v>
       </c>
       <c r="E16" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-2293.265:-1978.046</t>
+          <t>420.864:1730.147</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3683,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-2300.633:-1959.985</t>
+          <t>426.36:1737.336</t>
         </is>
       </c>
     </row>
@@ -3371,11 +3701,11 @@
         <v>2081.385453038818</v>
       </c>
       <c r="E18" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-2220.417:-1966.652</t>
+          <t>424.654:1700.496</t>
         </is>
       </c>
     </row>
@@ -3393,11 +3723,11 @@
         <v>2040.291928788106</v>
       </c>
       <c r="E19" t="n">
-        <v>0.011</v>
+        <v>0.002</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-2196.855:-1905.446</t>
+          <t>405.88:1673.926</t>
         </is>
       </c>
     </row>
@@ -3415,11 +3745,11 @@
         <v>2088.022685158459</v>
       </c>
       <c r="E20" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.003</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-2242.56:-1935.819</t>
+          <t>417.168:1720.658</t>
         </is>
       </c>
     </row>
@@ -3437,11 +3767,11 @@
         <v>2037.545055493272</v>
       </c>
       <c r="E21" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-2176.764:-1910.966</t>
+          <t>408.791:1667.318</t>
         </is>
       </c>
     </row>
@@ -3459,11 +3789,77 @@
         <v>2091.685679126183</v>
       </c>
       <c r="E22" t="n">
-        <v>0.008999999999999999</v>
+        <v>0</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-2326.572:-1955.912</t>
+          <t>414.097:1731.256</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2031.924845366232</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2002.588341317316</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>406.256:1634.312</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1938.897300949452</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1909.560796900536</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>392.192:1565.346</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1940.706406311864</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1911.369902262947</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>382.163:1581.423</t>
         </is>
       </c>
     </row>

--- a/reports/TS_Cyto_significant_times.xlsx
+++ b/reports/TS_Cyto_significant_times.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="IL18_ATP" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="IL18_MSU" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="IL18_Nigericin" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="IL1b_ATP" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="IL1b_MSU" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="IL1b_Nigericin" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IL18_ATP" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IL18_MSU" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IL18_Nigericin" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IL1b_ATP" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IL1b_MSU" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IL1b_Nigericin" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -479,11 +479,11 @@
         <v>4.350897190991443</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.006</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>9.433:12.432</t>
+          <t>9.544:12.435</t>
         </is>
       </c>
     </row>
@@ -501,11 +501,11 @@
         <v>3.290262062401871</v>
       </c>
       <c r="E3" t="n">
-        <v>0.021</v>
+        <v>0.025</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.279:11.663</t>
+          <t>9.26:11.669</t>
         </is>
       </c>
     </row>
@@ -523,11 +523,11 @@
         <v>5.5098082529564</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.878:13.233</t>
+          <t>9.858:13.282</t>
         </is>
       </c>
     </row>
@@ -545,11 +545,11 @@
         <v>9.372112626903576</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>10.59:16.315</t>
+          <t>10.595:16.356</t>
         </is>
       </c>
     </row>
@@ -567,11 +567,11 @@
         <v>12.86710229692338</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>11.254:19.177</t>
+          <t>11.302:19.122</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>12.158:22.21</t>
+          <t>12.069:22.115</t>
         </is>
       </c>
     </row>
@@ -611,11 +611,11 @@
         <v>19.43202663492405</v>
       </c>
       <c r="E8" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>12.726:24.361</t>
+          <t>12.622:24.4</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>13.213:27.725</t>
+          <t>13.476:27.553</t>
         </is>
       </c>
     </row>
@@ -655,11 +655,11 @@
         <v>25.58473030942158</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>13.867:29.204</t>
+          <t>13.804:29.326</t>
         </is>
       </c>
     </row>
@@ -677,11 +677,11 @@
         <v>28.99795535359392</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>14.395:32.16</t>
+          <t>14.628:32.128</t>
         </is>
       </c>
     </row>
@@ -699,11 +699,11 @@
         <v>32.56025179120617</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>15.088:34.998</t>
+          <t>15.193:34.817</t>
         </is>
       </c>
     </row>
@@ -721,11 +721,11 @@
         <v>35.95641682970965</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>15.885:37.524</t>
+          <t>15.826:37.586</t>
         </is>
       </c>
     </row>
@@ -743,11 +743,11 @@
         <v>40.71899790679873</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>16.594:41.621</t>
+          <t>16.603:41.551</t>
         </is>
       </c>
     </row>
@@ -765,11 +765,11 @@
         <v>43.29816726750975</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>17.288:43.557</t>
+          <t>17.256:43.551</t>
         </is>
       </c>
     </row>
@@ -787,11 +787,11 @@
         <v>47.56803433668792</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>17.903:46.941</t>
+          <t>17.819:46.997</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>18.997:51.937</t>
+          <t>19.013:51.747</t>
         </is>
       </c>
     </row>
@@ -831,11 +831,11 @@
         <v>64.60298876867638</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>20.663:60.809</t>
+          <t>20.45:61.136</t>
         </is>
       </c>
     </row>
@@ -853,11 +853,11 @@
         <v>76.39595081704786</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>22.436:71.204</t>
+          <t>22.459:71.335</t>
         </is>
       </c>
     </row>
@@ -875,11 +875,11 @@
         <v>74.90324209241982</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>23.036:68.865</t>
+          <t>22.863:69.148</t>
         </is>
       </c>
     </row>
@@ -897,11 +897,11 @@
         <v>85.22892954589926</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>24.563:78.016</t>
+          <t>24.177:78.02</t>
         </is>
       </c>
     </row>
@@ -919,11 +919,11 @@
         <v>86.17467372295488</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>25.489:78.01</t>
+          <t>25.292:77.993</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>27.275:89.427</t>
+          <t>28.148:89.427</t>
         </is>
       </c>
     </row>
@@ -963,11 +963,11 @@
         <v>107.8576335950445</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>30.049:95.154</t>
+          <t>29.921:95.232</t>
         </is>
       </c>
     </row>
@@ -985,11 +985,11 @@
         <v>105.3390142836121</v>
       </c>
       <c r="E25" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>28.002:94.606</t>
+          <t>27.582:94.522</t>
         </is>
       </c>
     </row>
@@ -1053,11 +1053,11 @@
         <v>24.84056815289922</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>48.914:65.102</t>
+          <t>49.0:64.84</t>
         </is>
       </c>
     </row>
@@ -1075,11 +1075,11 @@
         <v>53.1943797000192</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>54.571:87.594</t>
+          <t>54.362:87.887</t>
         </is>
       </c>
     </row>
@@ -1097,11 +1097,11 @@
         <v>68.07355000932533</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>57.483:99.636</t>
+          <t>57.673:100.039</t>
         </is>
       </c>
     </row>
@@ -1119,11 +1119,11 @@
         <v>82.19854747827536</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>59.798:110.82</t>
+          <t>59.617:110.785</t>
         </is>
       </c>
     </row>
@@ -1141,11 +1141,11 @@
         <v>91.38007612143171</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>62.198:118.331</t>
+          <t>61.119:118.401</t>
         </is>
       </c>
     </row>
@@ -1163,11 +1163,11 @@
         <v>104.1448615279835</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>64.303:128.911</t>
+          <t>63.864:128.757</t>
         </is>
       </c>
     </row>
@@ -1185,11 +1185,11 @@
         <v>114.5048926416165</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>66.608:136.707</t>
+          <t>66.592:136.971</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>67.728:142.454</t>
+          <t>67.993:142.585</t>
         </is>
       </c>
     </row>
@@ -1229,11 +1229,11 @@
         <v>127.5364987856764</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>69.259:147.538</t>
+          <t>68.81:147.661</t>
         </is>
       </c>
     </row>
@@ -1251,11 +1251,11 @@
         <v>135.4713619938295</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>69.48:153.697</t>
+          <t>69.096:154.005</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>71.525:157.76</t>
+          <t>71.976:157.663</t>
         </is>
       </c>
     </row>
@@ -1295,11 +1295,11 @@
         <v>151.6160768593553</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>72.738:167.095</t>
+          <t>72.948:166.859</t>
         </is>
       </c>
     </row>
@@ -1317,11 +1317,11 @@
         <v>151.8648781580472</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>73.915:167.488</t>
+          <t>72.919:167.436</t>
         </is>
       </c>
     </row>
@@ -1339,11 +1339,11 @@
         <v>171.8968734310531</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>74.685:184.517</t>
+          <t>74.961:184.518</t>
         </is>
       </c>
     </row>
@@ -1361,11 +1361,11 @@
         <v>164.2786947855662</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>76.263:176.551</t>
+          <t>76.187:176.502</t>
         </is>
       </c>
     </row>
@@ -1383,11 +1383,11 @@
         <v>170.5057631739522</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>76.76:182.076</t>
+          <t>76.029:182.85</t>
         </is>
       </c>
     </row>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>80.131:196.071</t>
+          <t>80.521:195.473</t>
         </is>
       </c>
     </row>
@@ -1427,11 +1427,11 @@
         <v>189.9648035363492</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>81.217:198.971</t>
+          <t>80.297:198.353</t>
         </is>
       </c>
     </row>
@@ -1449,11 +1449,11 @@
         <v>193.1411462152743</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>79.337:201.794</t>
+          <t>79.542:201.193</t>
         </is>
       </c>
     </row>
@@ -1471,11 +1471,11 @@
         <v>202.5016782604728</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>82.627:207.911</t>
+          <t>83.747:207.386</t>
         </is>
       </c>
     </row>
@@ -1493,11 +1493,11 @@
         <v>207.0373765456241</v>
       </c>
       <c r="E22" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>83.817:211.241</t>
+          <t>84.301:211.51</t>
         </is>
       </c>
     </row>
@@ -1515,11 +1515,11 @@
         <v>216.8168490634831</v>
       </c>
       <c r="E23" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>84.733:221.502</t>
+          <t>84.965:221.139</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>87.499:230.857</t>
+          <t>86.705:230.587</t>
         </is>
       </c>
     </row>
@@ -1559,11 +1559,11 @@
         <v>241.0694013964762</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>90.676:240.145</t>
+          <t>87.524:240.099</t>
         </is>
       </c>
     </row>
@@ -1627,11 +1627,11 @@
         <v>697.1587185805995</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>138.7:574.601</t>
+          <t>139.305:572.863</t>
         </is>
       </c>
     </row>
@@ -1649,11 +1649,11 @@
         <v>698.8787223221659</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>136.479:578.142</t>
+          <t>132.108:573.806</t>
         </is>
       </c>
     </row>
@@ -1671,11 +1671,11 @@
         <v>702.2140336497304</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>143.483:576.43</t>
+          <t>142.328:576.324</t>
         </is>
       </c>
     </row>
@@ -1693,11 +1693,11 @@
         <v>714.0741589565104</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>142.591:586.053</t>
+          <t>140.982:591.188</t>
         </is>
       </c>
     </row>
@@ -1715,11 +1715,11 @@
         <v>722.2425083599613</v>
       </c>
       <c r="E6" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>139.787:593.438</t>
+          <t>140.195:592.974</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
         <v>722.7698477317614</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>142.346:592.214</t>
+          <t>143.579:588.942</t>
         </is>
       </c>
     </row>
@@ -1759,11 +1759,11 @@
         <v>762.1763274738955</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>151.257:623.4</t>
+          <t>150.834:625.646</t>
         </is>
       </c>
     </row>
@@ -1781,11 +1781,11 @@
         <v>755.7835004810711</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>149.627:619.028</t>
+          <t>155.556:619.007</t>
         </is>
       </c>
     </row>
@@ -1803,11 +1803,11 @@
         <v>746.5128028033208</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>143.445:610.227</t>
+          <t>143.987:609.374</t>
         </is>
       </c>
     </row>
@@ -1825,11 +1825,11 @@
         <v>766.8123462346587</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>147.033:632.848</t>
+          <t>151.939:632.464</t>
         </is>
       </c>
     </row>
@@ -1847,11 +1847,11 @@
         <v>749.5334224636407</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>152.921:612.4</t>
+          <t>152.396:612.962</t>
         </is>
       </c>
     </row>
@@ -1869,11 +1869,11 @@
         <v>732.1489000612085</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>142.478:600.269</t>
+          <t>142.723:602.192</t>
         </is>
       </c>
     </row>
@@ -1891,11 +1891,11 @@
         <v>720.6302423244452</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>141.47:598.962</t>
+          <t>140.66:598.941</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>150.428:611.869</t>
+          <t>150.69:611.902</t>
         </is>
       </c>
     </row>
@@ -1935,11 +1935,11 @@
         <v>759.1198867944644</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>150.362:621.614</t>
+          <t>156.808:622.103</t>
         </is>
       </c>
     </row>
@@ -1957,11 +1957,11 @@
         <v>762.6267406312556</v>
       </c>
       <c r="E17" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>150.681:623.607</t>
+          <t>151.176:623.544</t>
         </is>
       </c>
     </row>
@@ -1979,11 +1979,11 @@
         <v>761.6954584535436</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>150.117:626.911</t>
+          <t>152.289:623.303</t>
         </is>
       </c>
     </row>
@@ -2001,11 +2001,11 @@
         <v>761.4055225207399</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>150.129:625.351</t>
+          <t>151.219:623.24</t>
         </is>
       </c>
     </row>
@@ -2023,11 +2023,11 @@
         <v>759.7038854831209</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>151.099:622.329</t>
+          <t>152.59:623.064</t>
         </is>
       </c>
     </row>
@@ -2045,11 +2045,11 @@
         <v>766.780208248317</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>157.108:626.299</t>
+          <t>150.51:626.166</t>
         </is>
       </c>
     </row>
@@ -2067,11 +2067,11 @@
         <v>779.1835759197348</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>153.889:638.884</t>
+          <t>158.617:640.573</t>
         </is>
       </c>
     </row>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>150.168:611.923</t>
+          <t>154.593:611.867</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>140.815:582.813</t>
+          <t>138.93:581.299</t>
         </is>
       </c>
     </row>
@@ -2133,11 +2133,11 @@
         <v>710.1230495242723</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>140.696:580.773</t>
+          <t>142.512:584.201</t>
         </is>
       </c>
     </row>
@@ -2201,11 +2201,11 @@
         <v>13.80004457910475</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01</v>
+        <v>0.019</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>28.96:39.283</t>
+          <t>28.815:39.284</t>
         </is>
       </c>
     </row>
@@ -2223,11 +2223,11 @@
         <v>13.27719421196146</v>
       </c>
       <c r="E3" t="n">
-        <v>0.027</v>
+        <v>0.037</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>27.492:39.507</t>
+          <t>27.642:39.558</t>
         </is>
       </c>
     </row>
@@ -2245,11 +2245,11 @@
         <v>20.48953709036882</v>
       </c>
       <c r="E4" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>29.507:44.642</t>
+          <t>29.534:44.784</t>
         </is>
       </c>
     </row>
@@ -2267,11 +2267,11 @@
         <v>37.46157661698937</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>33.221:58.099</t>
+          <t>33.46:57.964</t>
         </is>
       </c>
     </row>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>36.837:71.065</t>
+          <t>36.708:70.777</t>
         </is>
       </c>
     </row>
@@ -2311,11 +2311,11 @@
         <v>74.96709369831746</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>40.078:88.862</t>
+          <t>39.368:88.413</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>43.255:99.565</t>
+          <t>43.707:99.534</t>
         </is>
       </c>
     </row>
@@ -2355,11 +2355,11 @@
         <v>111.9728487602792</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>46.926:118.204</t>
+          <t>47.597:118.408</t>
         </is>
       </c>
     </row>
@@ -2377,11 +2377,11 @@
         <v>127.3850515112665</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>48.89:130.696</t>
+          <t>50.154:130.833</t>
         </is>
       </c>
     </row>
@@ -2399,11 +2399,11 @@
         <v>148.3841624423392</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>53.98:147.49</t>
+          <t>53.614:147.975</t>
         </is>
       </c>
     </row>
@@ -2421,11 +2421,11 @@
         <v>170.5307098860789</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>57.724:165.419</t>
+          <t>59.185:165.549</t>
         </is>
       </c>
     </row>
@@ -2443,11 +2443,11 @@
         <v>199.8358438375085</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>63.773:189.074</t>
+          <t>64.669:189.88</t>
         </is>
       </c>
     </row>
@@ -2465,11 +2465,11 @@
         <v>219.8049946922041</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>67.1:204.599</t>
+          <t>68.669:204.655</t>
         </is>
       </c>
     </row>
@@ -2487,11 +2487,11 @@
         <v>255.5662605577888</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>73.708:235.286</t>
+          <t>75.702:235.554</t>
         </is>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>81.956:262.854</t>
+          <t>79.935:263.105</t>
         </is>
       </c>
     </row>
@@ -2531,11 +2531,11 @@
         <v>324.9556389404702</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>83.803:292.489</t>
+          <t>88.174:294.787</t>
         </is>
       </c>
     </row>
@@ -2553,11 +2553,11 @@
         <v>404.7227736449895</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>100.23:352.872</t>
+          <t>101.308:358.129</t>
         </is>
       </c>
     </row>
@@ -2575,11 +2575,11 @@
         <v>506.4290148778208</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>114.764:443.564</t>
+          <t>114.465:442.194</t>
         </is>
       </c>
     </row>
@@ -2597,11 +2597,11 @@
         <v>508.144880568066</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>122.759:435.524</t>
+          <t>123.366:435.815</t>
         </is>
       </c>
     </row>
@@ -2619,11 +2619,11 @@
         <v>598.4608098896553</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>134.654:513.52</t>
+          <t>136.106:513.589</t>
         </is>
       </c>
     </row>
@@ -2645,7 +2645,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>143.752:533.57</t>
+          <t>145.323:533.32</t>
         </is>
       </c>
     </row>
@@ -2663,11 +2663,11 @@
         <v>758.0243633460547</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>168.245:639.367</t>
+          <t>167.745:638.474</t>
         </is>
       </c>
     </row>
@@ -2685,11 +2685,11 @@
         <v>830.0020333594697</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>188.382:695.635</t>
+          <t>188.082:694.309</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>177.658:700.424</t>
+          <t>178.877:699.798</t>
         </is>
       </c>
     </row>
@@ -2775,11 +2775,11 @@
         <v>95.78269454091753</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>87.943:150.589</t>
+          <t>88.581:149.695</t>
         </is>
       </c>
     </row>
@@ -2797,11 +2797,11 @@
         <v>263.3469475794815</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>119.469:284.754</t>
+          <t>119.781:285.414</t>
         </is>
       </c>
     </row>
@@ -2819,11 +2819,11 @@
         <v>379.4626386023662</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>142.84:378.288</t>
+          <t>143.298:378.512</t>
         </is>
       </c>
     </row>
@@ -2841,11 +2841,11 @@
         <v>473.2202249662439</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>163.088:456.294</t>
+          <t>158.485:455.533</t>
         </is>
       </c>
     </row>
@@ -2863,11 +2863,11 @@
         <v>556.1404207612563</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>176.861:519.941</t>
+          <t>179.611:519.192</t>
         </is>
       </c>
     </row>
@@ -2885,11 +2885,11 @@
         <v>645.484748517255</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>192.079:591.643</t>
+          <t>191.016:598.507</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>199.349:645.448</t>
+          <t>205.658:647.304</t>
         </is>
       </c>
     </row>
@@ -2929,11 +2929,11 @@
         <v>757.1528860196165</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>211.679:686.884</t>
+          <t>213.098:685.724</t>
         </is>
       </c>
     </row>
@@ -2951,11 +2951,11 @@
         <v>810.2656007072408</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>219.916:727.256</t>
+          <t>226.55:728.619</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>234.016:778.069</t>
+          <t>229.329:768.884</t>
         </is>
       </c>
     </row>
@@ -2995,11 +2995,11 @@
         <v>879.7561573437732</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>241.431:780.976</t>
+          <t>240.666:780.485</t>
         </is>
       </c>
     </row>
@@ -3017,11 +3017,11 @@
         <v>957.2369550806206</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>253.512:849.2</t>
+          <t>247.149:846.411</t>
         </is>
       </c>
     </row>
@@ -3039,11 +3039,11 @@
         <v>1003.994560745042</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>264.661:882.384</t>
+          <t>260.756:882.294</t>
         </is>
       </c>
     </row>
@@ -3061,11 +3061,11 @@
         <v>994.5235370506146</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>259.02:882.084</t>
+          <t>252.93:881.316</t>
         </is>
       </c>
     </row>
@@ -3083,11 +3083,11 @@
         <v>950.1522144746593</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>253.458:834.479</t>
+          <t>255.318:836.239</t>
         </is>
       </c>
     </row>
@@ -3105,11 +3105,11 @@
         <v>994.0336546365327</v>
       </c>
       <c r="E17" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>260.561:880.38</t>
+          <t>252.4:877.218</t>
         </is>
       </c>
     </row>
@@ -3127,11 +3127,11 @@
         <v>1053.308291727119</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>270.945:926.503</t>
+          <t>261.475:925.509</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>268.356:926.642</t>
+          <t>266.82:928.087</t>
         </is>
       </c>
     </row>
@@ -3171,11 +3171,11 @@
         <v>1084.365800126297</v>
       </c>
       <c r="E20" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>275.224:951.676</t>
+          <t>278.003:952.169</t>
         </is>
       </c>
     </row>
@@ -3193,11 +3193,11 @@
         <v>1121.10792992708</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>281.388:974.768</t>
+          <t>284.114:974.119</t>
         </is>
       </c>
     </row>
@@ -3215,11 +3215,11 @@
         <v>1112.859882162312</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>284.184:971.811</t>
+          <t>281.508:972.971</t>
         </is>
       </c>
     </row>
@@ -3237,11 +3237,11 @@
         <v>1161.683272192034</v>
       </c>
       <c r="E23" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>278.407:1016.203</t>
+          <t>287.129:1013.574</t>
         </is>
       </c>
     </row>
@@ -3259,11 +3259,11 @@
         <v>1190.829625085668</v>
       </c>
       <c r="E24" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>299.072:1039.336</t>
+          <t>289.187:1037.731</t>
         </is>
       </c>
     </row>
@@ -3281,11 +3281,11 @@
         <v>1229.470373921181</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>300.075:1068.844</t>
+          <t>300.368:1068.055</t>
         </is>
       </c>
     </row>
@@ -3349,11 +3349,11 @@
         <v>2258.759322842784</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>454.226:1854.469</t>
+          <t>455.062:1848.725</t>
         </is>
       </c>
     </row>
@@ -3371,11 +3371,11 @@
         <v>2477.981558043411</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>488.115:2041.047</t>
+          <t>494.627:2041.968</t>
         </is>
       </c>
     </row>
@@ -3393,11 +3393,11 @@
         <v>2569.166818797825</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>516.084:2093.091</t>
+          <t>514.133:2092.485</t>
         </is>
       </c>
     </row>
@@ -3415,11 +3415,11 @@
         <v>2552.604951474303</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>499.013:2094.074</t>
+          <t>514.744:2093.14</t>
         </is>
       </c>
     </row>
@@ -3437,11 +3437,11 @@
         <v>2563.750622707494</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>509.127:2105.485</t>
+          <t>510.55:2063.869</t>
         </is>
       </c>
     </row>
@@ -3459,11 +3459,11 @@
         <v>2606.882658415594</v>
       </c>
       <c r="E7" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>510.668:2130.233</t>
+          <t>510.215:2135.7</t>
         </is>
       </c>
     </row>
@@ -3481,11 +3481,11 @@
         <v>2169.786053369243</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>435.129:1773.434</t>
+          <t>446.236:1776.272</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>437.481:1774.861</t>
+          <t>427.752:1775.456</t>
         </is>
       </c>
     </row>
@@ -3525,11 +3525,11 @@
         <v>2183.857087915059</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>446.101:1790.387</t>
+          <t>443.055:1790.778</t>
         </is>
       </c>
     </row>
@@ -3547,11 +3547,11 @@
         <v>2171.702167849075</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>437.68:1779.685</t>
+          <t>428.58:1782.654</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>440.769:1758.087</t>
+          <t>445.648:1757.02</t>
         </is>
       </c>
     </row>
@@ -3591,11 +3591,11 @@
         <v>2085.229967295701</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>414.461:1718.615</t>
+          <t>415.19:1718.198</t>
         </is>
       </c>
     </row>
@@ -3613,11 +3613,11 @@
         <v>2002.178992314644</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>412.817:1643.23</t>
+          <t>400.993:1645.47</t>
         </is>
       </c>
     </row>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>424.258:1693.831</t>
+          <t>428.633:1694.726</t>
         </is>
       </c>
     </row>
@@ -3657,11 +3657,11 @@
         <v>2119.083827352233</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>420.864:1730.147</t>
+          <t>413.212:1732.868</t>
         </is>
       </c>
     </row>
@@ -3679,11 +3679,11 @@
         <v>2123.843004540886</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>426.36:1737.336</t>
+          <t>432.915:1737.441</t>
         </is>
       </c>
     </row>
@@ -3701,11 +3701,11 @@
         <v>2081.385453038818</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>424.654:1700.496</t>
+          <t>419.809:1699.844</t>
         </is>
       </c>
     </row>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>405.88:1673.926</t>
+          <t>410.476:1672.374</t>
         </is>
       </c>
     </row>
@@ -3745,11 +3745,11 @@
         <v>2088.022685158459</v>
       </c>
       <c r="E20" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>417.168:1720.658</t>
+          <t>421.17:1700.861</t>
         </is>
       </c>
     </row>
@@ -3767,11 +3767,11 @@
         <v>2037.545055493272</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>408.791:1667.318</t>
+          <t>414.898:1670.143</t>
         </is>
       </c>
     </row>
@@ -3789,11 +3789,11 @@
         <v>2091.685679126183</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>414.097:1731.256</t>
+          <t>415.609:1686.7</t>
         </is>
       </c>
     </row>
@@ -3811,11 +3811,11 @@
         <v>2002.588341317316</v>
       </c>
       <c r="E23" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>406.256:1634.312</t>
+          <t>407.71:1644.753</t>
         </is>
       </c>
     </row>
@@ -3833,11 +3833,11 @@
         <v>1909.560796900536</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>392.192:1565.346</t>
+          <t>393.141:1564.765</t>
         </is>
       </c>
     </row>
@@ -3855,11 +3855,11 @@
         <v>1911.369902262947</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>382.163:1581.423</t>
+          <t>383.654:1565.604</t>
         </is>
       </c>
     </row>
